--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-721893.0775729875</v>
+        <v>-724428.0484488427</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>218.2047179501961</v>
+        <v>302.1209133873602</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>85.86591622596833</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>75.77674891264041</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.533993354791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>339.0798611444075</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>136.7627051365333</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -950,16 +950,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>75.4724717935007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5.354592420331025</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>184.1477353216911</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>97.32228826427132</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>266.3400586166218</v>
+        <v>195.2548815324865</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.48499328953065</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>86.88943397770137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>49.34762173749108</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>219.9857967652655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>227.5037279512935</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>74.20064764874429</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.7072979240948</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221567</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.278680221567</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D2" t="n">
-        <v>1381.278680221567</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E2" t="n">
-        <v>995.4904276233228</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="F2" t="n">
-        <v>584.5045228337153</v>
+        <v>711.2652553691598</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4361,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>2242.482637368495</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>2073.546454440588</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1925.633360858195</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3238.872572896071</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3238.872572896071</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>3238.872572896071</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>3162.330402277243</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>3162.330402277243</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.676735765777</v>
+        <v>2872.913232240282</v>
       </c>
       <c r="X4" t="n">
-        <v>1065.68718486776</v>
+        <v>2644.923681342264</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.0871915800925</v>
+        <v>2424.131102198734</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.236214140705</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>936.9705155339541</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>551.1822629357098</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>544.2367621865063</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204826</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.6735467432878</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1921.885868876037</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1730.199984702863</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1730.199984702863</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1730.199984702863</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610488</v>
+        <v>1475.515496496976</v>
       </c>
       <c r="W7" t="n">
-        <v>935.3220115735276</v>
+        <v>1186.098326460015</v>
       </c>
       <c r="X7" t="n">
-        <v>935.3220115735276</v>
+        <v>958.1087755619981</v>
       </c>
       <c r="Y7" t="n">
-        <v>935.3220115735276</v>
+        <v>958.1087755619981</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1951.579048918385</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>1782.642865990478</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>2623.050455131166</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>2623.050455131166</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>2354.020092892154</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X10" t="n">
-        <v>2354.020092892154</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y10" t="n">
-        <v>2133.227513748624</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.517090583878</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5604,16 +5604,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2330.071297269541</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2040.996070613739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.311582407852</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1496.894412370891</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,49 +5990,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1466.177978334236</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1176.760808297275</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7712573992578</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.9786782557277</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.584108449359</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>335.9629114732377</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>168.7668121881176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345469</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,49 +7807,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8391469006585</v>
+        <v>108.8008122660932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>210.4350892929725</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.05065999730382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146.3469868924066</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>168.0578285897972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>32.15184655856248</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>24.63391537253449</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>7.065188669821239</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>5.713750098836414</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254692</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26335,7 +26335,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="K2" t="n">
         <v>242143.9799070018</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.530959285</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17295.44866092629</v>
+        <v>17295.44866092635</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316949</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26433,13 +26433,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26448,16 +26448,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
+        <v>20377.77944491156</v>
+      </c>
+      <c r="P4" t="n">
         <v>20377.77944491159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1246703.014824443</v>
+        <v>-1247028.359914724</v>
       </c>
       <c r="C6" t="n">
-        <v>46804.63544472249</v>
+        <v>46804.63544472233</v>
       </c>
       <c r="D6" t="n">
-        <v>46804.63544472233</v>
+        <v>46804.63544472204</v>
       </c>
       <c r="E6" t="n">
-        <v>-196777.9319060789</v>
+        <v>-196812.6698315143</v>
       </c>
       <c r="F6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="G6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="H6" t="n">
-        <v>128634.5299012767</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="I6" t="n">
-        <v>128634.5299012765</v>
+        <v>128599.7919758408</v>
       </c>
       <c r="J6" t="n">
-        <v>-88896.67249600106</v>
+        <v>-88931.41042143667</v>
       </c>
       <c r="K6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="L6" t="n">
-        <v>128634.5299012765</v>
+        <v>128599.7919758408</v>
       </c>
       <c r="M6" t="n">
-        <v>18287.88973131411</v>
+        <v>18287.88973131412</v>
       </c>
       <c r="N6" t="n">
-        <v>122770.6356604578</v>
+        <v>122770.635660458</v>
       </c>
       <c r="O6" t="n">
-        <v>122770.635660458</v>
+        <v>122770.6356604582</v>
       </c>
       <c r="P6" t="n">
         <v>122770.635660458</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26790,7 +26790,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>82.87786080259885</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.06623644407901</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.19303062660003</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>274.1590205169202</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>91.77434930512713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>83.57756024971631</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>181.1251564493164</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390451</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>20.18293971996917</v>
+        <v>91.26811680410447</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>502.5232631188757</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>691.6611968462889</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>463.4789474089069</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
-        <v>301.644515672456</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>689.7436082887214</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,10 +34445,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>368.5488557045454</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>560.3194847629557</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>325.6375084345479</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O27" t="n">
-        <v>159.0482712280115</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>547.609574366703</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
